--- a/Realms_Config.xlsx
+++ b/Realms_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prosham/Library/CloudStorage/GoogleDrive-prosham@purestorage.com/My Drive/prosham/Src/staas-provisioning-fusion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\staas-provisioning-fusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF765543-E7DC-474F-AB1B-D6B5FAAC213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA429B-589D-408E-8525-B49CD3943B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="-25780" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="45315" windowHeight="23911" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Realms_Workloads" sheetId="1" r:id="rId1"/>
@@ -385,15 +385,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -418,7 +418,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -427,7 +427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -435,7 +435,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -444,7 +444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -452,7 +452,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -461,7 +461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -469,7 +469,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -478,7 +478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -486,7 +486,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -495,7 +495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -512,7 +512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -520,7 +520,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -529,7 +529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -537,7 +537,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -563,9 +563,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>

--- a/Realms_Config.xlsx
+++ b/Realms_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\staas-provisioning-fusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDA429B-589D-408E-8525-B49CD3943B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BA59E-EF4E-4C2B-A6E4-A4F1BF6DCDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="45315" windowHeight="23911" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
